--- a/NLP/NLP-Deep Learning/RNN.xlsx
+++ b/NLP/NLP-Deep Learning/RNN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6yuv\Documents\Learning\Sequence Modeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u6yuv\Documents\meetup-intuition-to-implementation\NLP\NLP-Deep Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A695A2-607C-4D94-AA1F-1172123A34B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409DF74-59AD-49EF-A351-BE0924F91026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{23B65516-3F27-4736-8F5E-87EE1D8830D9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>X(t)</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Whh( Hidden to Hidden recurrent Connection Weight matrix - W)</t>
   </si>
   <si>
-    <t>Why(Hidden to Output Connections Weight Matrix- V)</t>
-  </si>
-  <si>
     <t>Update Equations</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>[3,4]</t>
   </si>
   <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
     <t>[3,1]</t>
   </si>
   <si>
@@ -93,7 +87,28 @@
     <t>(Sum of the losses over all time step)</t>
   </si>
   <si>
-    <t>3 Hidden Cells</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>[Vocab Size, No of examples] [4,1]</t>
+  </si>
+  <si>
+    <t>[3,3]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>Hidden Cells</t>
+  </si>
+  <si>
+    <t>Output Neurons</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>Wya(Hidden to Output Connections Weight Matrix- V)</t>
   </si>
 </sst>
 </file>
@@ -526,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2DE589-1958-4422-84A7-6C0C5AF4396E}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -541,106 +556,128 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
